--- a/apps/condo/domains/ticket/templates/ru/TicketAnalyticsExportTemplate[status_property].xlsx
+++ b/apps/condo/domains/ticket/templates/ru/TicketAnalyticsExportTemplate[status_property].xlsx
@@ -291,18 +291,20 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -325,7 +327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -348,7 +350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
